--- a/medicine/Mort/La_Ligne_verte_(film)/La_Ligne_verte_(film).xlsx
+++ b/medicine/Mort/La_Ligne_verte_(film)/La_Ligne_verte_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ligne verte (The Green Mile) est un film américain écrit et réalisé par Frank Darabont, sorti en 1999.
 Il s'agit d'une adaptation cinématographique du roman-feuilleton du même nom de Stephen King.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1996, le vieux Paul Edgecomb, un ancien gardien-chef d'un pénitencier en Louisiane dans les années 1930, entreprend d'écrire ses mémoires. Il revient sur l'affaire John Coffey — ce grand Noir au regard absent, condamné à mort pour le viol et le meurtre, en mai 1935, de deux fillettes — qui défraya la chronique de l'époque.
 Le pénitencier où se déroule l'action s'appelle le Cold Mountain. Paul, âgé à l'époque d'une quarantaine d'années, travaille dans le Bloc E où les condamnés à la chaise électrique passent leurs derniers jours. Le bloc en question est surnommé la « Ligne verte », en référence à la ligne au sol qui conduit les condamnés à la salle d'exécution.
@@ -559,7 +573,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Green Mile
 Titre français et québécois : La Ligne verte
@@ -576,7 +592,7 @@
 Production : Frank Darabont et David Valdes
 Sociétés de production : Castle Rock Entertainment, Darkwood Productions et Warner Bros.
 Sociétés de distribution : Warner Bros., United International Pictures (UIP)
-Budget : 60 000 000 $[1]
+Budget : 60 000 000 $
 Pays de production :  États-Unis
 Langues : anglais, français
 Format : couleur — 35 mm — 1,85:1 — son Dolby
@@ -614,7 +630,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tom Hanks (VF : Jean-Philippe Puymartin ; VQ : Alain Zouvi) : Paul Edgecomb, le gardien-chef
 Michael Clarke Duncan (VF : Peter King ; VQ : Victor Désy) : John Coffey (Caffey en VF), le détenu doté de facultés inexpliquées.
@@ -636,7 +654,7 @@
 Gary Sinise (VF : Philippe Crubézy ; VQ : Jean-Luc Montminy) : Burt Hammersmith, l'avocat
 Bill McKinney (VF : Jean O'Cottrell ; VQ : Aubert Pallascio) : Jack Van Hay, l'électricien d'État
 William Sadler (VF : Pierre Baux ; VQ : Jacques Lavallée) : Klaus Detterick
-Sources et légende : Version française (VF) sur AlloDoublage[2]. Version québécoise (VQ) sur Doublage Québec[3]</t>
+Sources et légende : Version française (VF) sur AlloDoublage. Version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -666,39 +684,148 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le projet de La Ligne verte naît d'une conversation téléphonique entre Stephen King et Frank Darabont qui avaient déjà collaboré ensemble sur Les Évadés. L'auteur raconte l'histoire, très brève sur le moment, au réalisateur qui se montre immédiatement intéressé. Mais Stephen King doit d'abord écrire l'histoire. Prenant exemple sur les séries de Charles Dickens, King décide de publier La Ligne verte en six épisodes. En découvrant le premier épisode, intitulé The Two Dead Girls (Deux petites filles mortes en français), Frank Darabont est conquis et commence à plancher sur le scénario. Mais il doit attendre de lire les autres livres que Stephen King écrit au fur et à mesure. En tout, Frank Darabont passe huit semaines à écrire le script.
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le projet de La Ligne verte naît d'une conversation téléphonique entre Stephen King et Frank Darabont qui avaient déjà collaboré ensemble sur Les Évadés. L'auteur raconte l'histoire, très brève sur le moment, au réalisateur qui se montre immédiatement intéressé. Mais Stephen King doit d'abord écrire l'histoire. Prenant exemple sur les séries de Charles Dickens, King décide de publier La Ligne verte en six épisodes. En découvrant le premier épisode, intitulé The Two Dead Girls (Deux petites filles mortes en français), Frank Darabont est conquis et commence à plancher sur le scénario. Mais il doit attendre de lire les autres livres que Stephen King écrit au fur et à mesure. En tout, Frank Darabont passe huit semaines à écrire le script.
 Bien que peu d'éléments soient supprimés, le scénario présente des différences par rapport au roman :
-Dans le livre, l'histoire se déroule en 1932 ; dans le film, cela se passe en 1935[4].
+Dans le livre, l'histoire se déroule en 1932 ; dans le film, cela se passe en 1935.
 Les noms des prisonniers diffèrent parfois.
 Le moment où John Coffey soigne l'infection urinaire de Paul Edgecomb : dans le livre, John demande à Paul de venir dans sa cellule s'asseoir et Paul le fait ; dans le film John attrape Paul et le plaque contre les barreaux de sa cellule.
-Dans le livre, Burt Hammersmith est un journaliste qui a couvert le procès de John Coffey ; dans le film, il est son avocat (probablement commis d'office)[4].
+Dans le livre, Burt Hammersmith est un journaliste qui a couvert le procès de John Coffey ; dans le film, il est son avocat (probablement commis d'office).
 Dans le livre, Paul enquête sur le cas de John Coffey et y découvre de nombreux faits prouvant son innocence.
 Le moment où Percy Wetmore tue de plusieurs balles William Wharton : dans le livre, il est dit que Wharton est allongé sur son lit, endormi à cause des puissants somnifères donnés quelques heures plus tôt par Paul ; dans le film, celui-ci a une conversation avec Percy avant qu'il ne le tue.
-Dans le livre, John Coffey demande en guise de dernier repas un pain de viande avec de la sauce, de la purée, des gombos et une tarte aux pêches préparée par Jan Edgecomb, la femme de Paul ; dans le film, il demande un pain de maïs préparé par Jan Edgecomb à la place de la tarte aux pêches. Dans la version française du film, il demande un bon ragoût à la place du pain de viande[4].
+Dans le livre, John Coffey demande en guise de dernier repas un pain de viande avec de la sauce, de la purée, des gombos et une tarte aux pêches préparée par Jan Edgecomb, la femme de Paul ; dans le film, il demande un pain de maïs préparé par Jan Edgecomb à la place de la tarte aux pêches. Dans la version française du film, il demande un bon ragoût à la place du pain de viande.
 Dans le film, Brutus Howell et Paul Edgecomb sont avec John Coffey quand celui-ci annonce son envie de mourir. Dans le livre, c'est Paul Edgecomb qui l'annonce à Brutus Howell.
 Dans le film, Paul Edgecomb dit à sa femme qu'il a fait des choses dont il n'est pas fier, mais qu'il a peur d'aller en enfer s'il tue John. Dans le livre, c'est Brutus Howell qui tient presque le même discours à Paul.
-La scène où John Coffey regarde un film n'est pas présente dans le livre[4].
+La scène où John Coffey regarde un film n'est pas présente dans le livre.
 Dans le film, Paul Edgecomb dirige l'exécution de John, mais ne parvient pas à donner l'ordre, au point que Brutus doit l'y contraindre. Dans le livre, c'est exactement l'inverse, avec cette différence que Paul finit par donner l'ordre vu le silence de Brutus.
-Dans le livre, Paul a 104 ans lorsqu'il raconte son histoire à Elaine. Dans le film, il en a 108[4].
-La fin est également différente (le livre contient des informations supplémentaires sur la vie de Paul avant la maison de retraite, et une scène concernant Mister Jingle vieillissant).
-Choix des interprètes
-Dès l'écriture du scénario, Frank Darabont pense directement à Tom Hanks pour incarner le gardien-chef Paul Edgecomb, jugeant que le personnage est parfait pour l'acteur.
+Dans le livre, Paul a 104 ans lorsqu'il raconte son histoire à Elaine. Dans le film, il en a 108.
+La fin est également différente (le livre contient des informations supplémentaires sur la vie de Paul avant la maison de retraite, et une scène concernant Mister Jingle vieillissant).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Choix des interprètes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès l'écriture du scénario, Frank Darabont pense directement à Tom Hanks pour incarner le gardien-chef Paul Edgecomb, jugeant que le personnage est parfait pour l'acteur.
 Le rôle de John Coffey est à l'inverse plus difficile à trouver lorsque Frank Darabont reçoit un appel de Bruce Willis qui lui propose alors Michael Clarke Duncan avec qui il vient de tourner Armageddon. Pour préparer son rôle, Duncan suit des séances de coaching pour donner à Coffey l'âme d'un enfant de 5 ans.
 Découvert à la télévision pour son rôle inquiétant d'Eugene Tooms dans deux épisodes de la série X-Files : Aux frontières du réel, Doug Hutchison obtient ici son premier rôle important avec celui du sadique Percy Wetmore.
 Tom Hanks retrouve Gary Sinise, après avoir joué avec lui dans Forrest Gump puis Apollo 13, mais aussi Barry Pepper après Il faut sauver le soldat Ryan.
 Pas moins de quinze souris ont été utilisées pour donner vie à Mister Jingle dans le film. Dressées par le coach animalier Boone Narr, chaque spécimen possède sa caractéristique : une pour courir ; une pour tenir la bobine ; une pour s'arrêter au pied d'un personnage ; une pour longer les bras d'Edouard Delacroix d'une main à l'autre ; une pour attraper la nourriture... L'une d'elles a dû subir des maquillages pour incarner Mister Jingle âgé à la fin du film.
 À l'origine, Tom Hanks devait également assurer les scènes de Paul Edgecomb centenaire. Bien que les essais maquillage fussent concluants, l'acteur ne se sentait pas à l'aise en devant jouer en présence de véritables personnes âgées. Finalement le rôle est confié à l'acteur Dabbs Greer, âgé en réalité de 81 ans. Ce sera son tout dernier film avant son décès en 2007.
-Tournage
-Le film est tourné de juillet à décembre 1998. La plupart des extérieurs sont filmés dans le Tennessee, notamment à Shelbyville, Buffalo Valley (en) ou encore à Columbia. D'autres séquences sont filmées en Caroline du Nord, entre autres dans les montagnes Blue Ridge.
-La façade de la prison du film est celle de l'ancienne prison d'État du Tennessee située à Nashville[5] qui fut autrefois un choix rejeté par Frank Darabont et le producteur David Valdes pour Les Évadés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est tourné de juillet à décembre 1998. La plupart des extérieurs sont filmés dans le Tennessee, notamment à Shelbyville, Buffalo Valley (en) ou encore à Columbia. D'autres séquences sont filmées en Caroline du Nord, entre autres dans les montagnes Blue Ridge.
+La façade de la prison du film est celle de l'ancienne prison d'État du Tennessee située à Nashville qui fut autrefois un choix rejeté par Frank Darabont et le producteur David Valdes pour Les Évadés.
 Si le tournage se déroule bien dans l'ensemble, Frank Darabont rencontre de petits soucis techniques : Alors que la ligne verte est construite avec du Linoleum, des opérateurs caméra se mettent à visser leur matériel sur cette ligne. Ne souhaitant pas l'abîmer, Darabont demande à ce qu'elle soit réparée puis repeinte. Finalement les cadreurs trouvent la solution en utilisant des sacs de sable.
 De son côté, Michael Clarke Duncan parvient difficilement à jouer la scène où Coffey hurle en serrant les deux filles mortes dans ses bras avant d'être découvert par une cinquantaine d'hommes (dont le père des deux fillettes). L'acteur était réellement effrayé par les figurants armés de fusils.
 Pour dégager une réelle amitié entre son personnage et Mister Jingle, Michael Jeter (Edouard Delacroix) passe beaucoup de temps à s'entraîner avec les souris afin de parfaire son jeu devant la caméra. À l'inverse, les autres acteurs ne sont pas très à l'aise chaque fois qu'ils doivent prendre les souris dans leurs mains. En effet celles-ci n'arrêtent pas de faire leurs besoins naturels, particulièrement dans les mains de Michael Clarke Duncan où chacune urinait.
 Lorsque Sam Rockwell joue la scène où Wharton emmène les deux petites filles en les menaçant, l'une des figurantes a fondu en larmes, apeurée par le jeu de l'acteur. Celui-ci a dû la rassurer une fois la prise coupée.
 Enfin l'actrice Patricia Clarkson, qui joue le rôle de Melinda Moores, est très frustrée de devoir rester allongée dans le lit le temps de ses prises pour simuler une agonie.
-Effets visuels
-Malgré sa grande taille (1,96 m), Michael Clarke Duncan ne paraît pas suffisamment imposant pour le personnage de John Coffey qui mesure 2,13 m. Outre quelques angles de caméra bien précis, l'acteur joue la plupart de ses prises sur des estrades dont une longeant entièrement la ligne verte pour l'arrivée de Coffey dans sa cellule. Pour la séquence de la découverte de Coffey serrant les corps des deux fillettes, des mannequins à format réduit sont construits pour créer une impression d'immensité du personnage. Il en est de même pour la chaise électrique dont un format réduit est construit pour l'exécution de Coffey.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Effets visuels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré sa grande taille (1,96 m), Michael Clarke Duncan ne paraît pas suffisamment imposant pour le personnage de John Coffey qui mesure 2,13 m. Outre quelques angles de caméra bien précis, l'acteur joue la plupart de ses prises sur des estrades dont une longeant entièrement la ligne verte pour l'arrivée de Coffey dans sa cellule. Pour la séquence de la découverte de Coffey serrant les corps des deux fillettes, des mannequins à format réduit sont construits pour créer une impression d'immensité du personnage. Il en est de même pour la chaise électrique dont un format réduit est construit pour l'exécution de Coffey.
 Le passage où Mister Jingle fait rouler la bobine était irréalisable avec la souris seule. De ce fait, la bobine est reliée à un chariot de travelling puis roulée en avant. La souris crée l'illusion en tentant en fait de passer par-dessus.
 Le plan où Mister Jingle court puis se fait écraser par le pied de Percy (un passage qui suscite la polémique auprès du public) est en fait réalisé en deux plans joints. S'il s'agît d'une vraie souris qui court, elle est remplacée numériquement par une souris en caoutchouc au moment de passer sous le pied du gardien.
 Les séquences où Coffey crache des insectes a été un vrai défi. Réalisés par Industrial Light &amp; Magic (compagnie d'effets spéciaux créée par George Lucas), les insectes sont de vagues formes géométriques qui finissent par disparaître sur l'image. La seconde crachée de Coffey (après avoir ramené Mister Jingle à la vie) a été réalisée en deux plans reliés numériquement, la caméra ne pouvant traverser les barreaux de la cellule.
@@ -707,70 +834,147 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-Il a reçu un accueil critique favorable, recueillant 80 % de critiques positives, avec une note moyenne de 6,8⁄10 et sur la base de 132 critiques collectées, sur le site internet Rotten Tomatoes[6]. Il obtient un score de 61⁄100, sur la base de 36 critiques, sur Metacritic[7]. En France, les critiques ont été plus mitigées. Côté positif, Le Figaroscope évoque « un plaidoyer pour l'amour et la compréhension des autres », L'Écran fantastique « une étonnante chronique humaniste », Le Parisien souligne « l'excellence de l'interprétation », et Le Nouvel Observateur que « l'émotion est au rendez-vous ». Côté négatif, les Cahiers du cinéma trouvent le film « écœurant au plus haut point », Première évoque « une fable christique qui s'avère longuement ridicule » et Télérama regrette que le réalisateur ne remette jamais en question la peine de mort[8]. En France, il a une bonne appréciation sur le site spécialisé Allociné, qu'il a toujours dans les années 2020, lorsqu'il est deuxième du classement des 300 meilleurs films de tous les temps selon les avis des télespectateurs sur la base cette fois de 66 910 avis collectés, derrière "Forrest Gump" et "La liste de Schindler", et devant "12 hommes en colère", "Le Parrain", "Les évadés", "Le Seigneur des anneaux : le retour du roi", "Le Roi lion", "Vol au-dessus d'un nid de coucou" et "The Dark Knight, Le Chevalier Noir"[9].
-Le film figure dans le Top 250 du classement des meilleurs films de l'Internet Movie Database, basé sur les votes du public, avec une note moyenne de 8,4⁄10[10]. En 2008, le magazine Empire l'a classé à la 331e place dans sa liste des 500 meilleurs films de tous les temps[11]. Le film est d'ailleurs 2e dans la liste des meilleurs films de tous les temps selon les spectateurs sur Allociné.
-Box-office
-Le film a rapporté 286 801 374 $ au box-office mondial (dont 136 801 374 aux États-Unis), ce qui en faisait jusqu'à la sortie de Ça le plus grand succès commercial d'un film adapté d'une œuvre de Stephen King[1]. Il a attiré dans les salles de cinéma 1 714 080 spectateurs en France, 313 321 en Belgique et 279 969 en Suisse[12].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a reçu un accueil critique favorable, recueillant 80 % de critiques positives, avec une note moyenne de 6,8⁄10 et sur la base de 132 critiques collectées, sur le site internet Rotten Tomatoes. Il obtient un score de 61⁄100, sur la base de 36 critiques, sur Metacritic. En France, les critiques ont été plus mitigées. Côté positif, Le Figaroscope évoque « un plaidoyer pour l'amour et la compréhension des autres », L'Écran fantastique « une étonnante chronique humaniste », Le Parisien souligne « l'excellence de l'interprétation », et Le Nouvel Observateur que « l'émotion est au rendez-vous ». Côté négatif, les Cahiers du cinéma trouvent le film « écœurant au plus haut point », Première évoque « une fable christique qui s'avère longuement ridicule » et Télérama regrette que le réalisateur ne remette jamais en question la peine de mort. En France, il a une bonne appréciation sur le site spécialisé Allociné, qu'il a toujours dans les années 2020, lorsqu'il est deuxième du classement des 300 meilleurs films de tous les temps selon les avis des télespectateurs sur la base cette fois de 66 910 avis collectés, derrière "Forrest Gump" et "La liste de Schindler", et devant "12 hommes en colère", "Le Parrain", "Les évadés", "Le Seigneur des anneaux : le retour du roi", "Le Roi lion", "Vol au-dessus d'un nid de coucou" et "The Dark Knight, Le Chevalier Noir".
+Le film figure dans le Top 250 du classement des meilleurs films de l'Internet Movie Database, basé sur les votes du public, avec une note moyenne de 8,4⁄10. En 2008, le magazine Empire l'a classé à la 331e place dans sa liste des 500 meilleurs films de tous les temps. Le film est d'ailleurs 2e dans la liste des meilleurs films de tous les temps selon les spectateurs sur Allociné.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a rapporté 286 801 374 $ au box-office mondial (dont 136 801 374 aux États-Unis), ce qui en faisait jusqu'à la sortie de Ça le plus grand succès commercial d'un film adapté d'une œuvre de Stephen King. Il a attiré dans les salles de cinéma 1 714 080 spectateurs en France, 313 321 en Belgique et 279 969 en Suisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, cette liste provient d'informations de l'Internet Movie Database[13].
-Récompenses
-Saturn Awards :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, cette liste provient d'informations de l'Internet Movie Database.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Saturn Awards :
 Meilleur film d'action/aventures/thriller
 Meilleur second rôle masculin (Michael Clarke Duncan)
 Meilleur second rôle féminin (Patricia Clarkson).
@@ -780,9 +984,43 @@
 People's Choice Awards :
 Meilleur film
 Prix du film Mainichi :
-Prix des lecteurs du meilleur film étranger
-Nominations
-72e cérémonie des Oscars :
+Prix des lecteurs du meilleur film étranger</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>72e cérémonie des Oscars :
 Oscar du meilleur acteur dans un second rôle pour Michael Clarke Duncan
 Oscar du meilleur film
 Oscar du meilleur scénario adapté
@@ -801,76 +1039,152 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morale
-La Ligne verte décrit un univers étouffant et brutal où la défiance est la règle. Personne ne sort indemne de cette prison coupée du monde. Aux frontières du film noir, fantastique et traumatisant, ce film est aussi une brillante réflexion sur la peine de mort. Ce film, issu d'un roman-feuilleton de Stephen King édité en 1996, est différent de ses habituelles incursions dans l'horreur. Le film est régulièrement reconnu comme terriblement efficace et dérangeant par les critiques[14].
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Morale</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Ligne verte décrit un univers étouffant et brutal où la défiance est la règle. Personne ne sort indemne de cette prison coupée du monde. Aux frontières du film noir, fantastique et traumatisant, ce film est aussi une brillante réflexion sur la peine de mort. Ce film, issu d'un roman-feuilleton de Stephen King édité en 1996, est différent de ses habituelles incursions dans l'horreur. Le film est régulièrement reconnu comme terriblement efficace et dérangeant par les critiques.
 John Coffey est condamné à mort à tort : pour avoir été trouvé sur les lieux du crime, tenant dans ses bras le corps sans vie des deux fillettes (violées et assassinées), alors qu'il tentait en réalité de leur porter secours.
-Impact du film
-Le film La Ligne verte a eu un impact sur la peine de mort et le racisme. Il expose de manière poignante le racisme institutionnalisé et les préjugés de l'époque dénonçant les injustices et les inégalités qui persistent encore dans la société actuelle.  
-Le personnage John Coffey, Afro-Américain et condamné à mort sans preuve pour le meurtre de deux jeunes filles blanches. « Voilà donc la pierre centrale du film qui est une dénonciation du racisme et de la peine de mort. »[15]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Impact du film</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film La Ligne verte a eu un impact sur la peine de mort et le racisme. Il expose de manière poignante le racisme institutionnalisé et les préjugés de l'époque dénonçant les injustices et les inégalités qui persistent encore dans la société actuelle.  
+Le personnage John Coffey, Afro-Américain et condamné à mort sans preuve pour le meurtre de deux jeunes filles blanches. « Voilà donc la pierre centrale du film qui est une dénonciation du racisme et de la peine de mort. »
 Sa condamnation à mort et le traitement qu'il subit en prison soulignent les injustices liées au racisme. Ce film a eu un impact profond en éveillant les consciences sur les questions du racisme et de la peine de mort.
-La performance remarquable de Michael Clarke Duncan en tant que John Coffey apporte une humanité à ce personnage, suscitant la sympathie du public et remettant en question les stéréotypes raciaux. « Mais cela n’aura pas empêché l’interprète de « John Coffey » Michael Clarke Ducan de subir des actes racistes après sa mort. »[16]
-L’art et en particulier le cinéma s’attache à dénoncer l’horreur de la peine capitale « Ainsi voit-on que les artistes se sont engagés depuis des siècles dans la dénonciation de la peine de mort »[17]. La Ligne verte invite le spectateur à remettre en question la moralité de la condamnation à mort. L'histoire met en lumière les failles du système judiciaire et souligne les conséquences tragiques de la précipitation dans le jugement.
+La performance remarquable de Michael Clarke Duncan en tant que John Coffey apporte une humanité à ce personnage, suscitant la sympathie du public et remettant en question les stéréotypes raciaux. « Mais cela n’aura pas empêché l’interprète de « John Coffey » Michael Clarke Ducan de subir des actes racistes après sa mort. »
+L’art et en particulier le cinéma s’attache à dénoncer l’horreur de la peine capitale « Ainsi voit-on que les artistes se sont engagés depuis des siècles dans la dénonciation de la peine de mort ». La Ligne verte invite le spectateur à remettre en question la moralité de la condamnation à mort. L'histoire met en lumière les failles du système judiciaire et souligne les conséquences tragiques de la précipitation dans le jugement.
 La Ligne verte transcende son statut de simple divertissement pour devenir un catalyseur de réflexion sociale. Il a laissé une empreinte indélébile dans le monde du cinéma en contribuant au dialogue sur la discrimination raciale et la justice, faisant de lui bien plus qu'un film, mais une œuvre qui continue d'influencer les esprits et les cœurs des spectateurs
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Erreurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Le scénario présente un anachronisme : à l'époque où se déroule l'action (les années 1930), la Louisiane exécutait encore ses condamnés à mort par pendaison, la chaise électrique n'ayant été adoptée qu'en 1941 (voir l'article : Peine de mort en Louisiane).
-Une autre incohérence apparait lorsque William Wharton retire la ceinture de sa taille, dans sa cellule : ce type d'accessoire est en principe confisqué lors de l'emprisonnement.
-Faux raccords
-Lorsque Harry et Howie sont assis au bureau central, avec Percy debout sur la gauche de l'image, Mister Jingle s'avance puis s'arrête juste devant le bureau pile sous le reflet du ciel. Par la suite, les deux mêmes gardiens tentent d'attirer la souris en lui lançant des morceaux de nourriture et celle-ci s'avance encore. Au moment où Percy tente de la tuer en jetant sa matraque, Mister Jingle apparaît exactement placé au milieu du reflet.
+Une autre incohérence apparait lorsque William Wharton retire la ceinture de sa taille, dans sa cellule : ce type d'accessoire est en principe confisqué lors de l'emprisonnement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Ligne_verte_(film)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Erreurs</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Faux raccords</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Lorsque Harry et Howie sont assis au bureau central, avec Percy debout sur la gauche de l'image, Mister Jingle s'avance puis s'arrête juste devant le bureau pile sous le reflet du ciel. Par la suite, les deux mêmes gardiens tentent d'attirer la souris en lui lançant des morceaux de nourriture et celle-ci s'avance encore. Au moment où Percy tente de la tuer en jetant sa matraque, Mister Jingle apparaît exactement placé au milieu du reflet.
 Lorsque Wharton crache sur Brutus tout le chocolat qu'il a mâché, le gardien se retrouve défiguré et son épaulette droite est elle-aussi salie. Peu après, au moment d'enfermer Wharton dans la cellule capitonnée, Brutus a toujours la figure sale mais son épaulette apparaît bien propre.
 Dans la scène de l'exécution d'Edouard Delacroix, Percy ordonne de lancer la phase no 1 et l'électricien d'État fait allumer toutes les ampoules. Or celles-ci apparaissent déjà allumées quelques plans auparavant.
 Lorsqu'Edgecomb et ses collègues arrivent à la maison du directeur en camionnette, transportant Coffey, la caméra effectue un petit travelling pour se resserrer sur les acteurs. En chemin, on peut apercevoir des techniciens du tournage dans le reflet des vitres du véhicule.
